--- a/output/VALUE/rebalance/rebalance_20240930.xlsx
+++ b/output/VALUE/rebalance/rebalance_20240930.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>24.68%</t>
+          <t>24.77%</t>
         </is>
       </c>
     </row>
@@ -6282,13 +6282,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03294596146180583</v>
+        <v>0.0327718504570726</v>
       </c>
       <c r="C2" t="n">
         <v>0.027652318054288</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.005293643407517829</v>
+        <v>-0.005119532402784597</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6303,13 +6303,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02639881314892221</v>
+        <v>0.02625731005619422</v>
       </c>
       <c r="C3" t="n">
         <v>0.02616609188942918</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0002327212594930399</v>
+        <v>-9.12181667650433e-05</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6324,13 +6324,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02023617431009835</v>
+        <v>0.020131910348119</v>
       </c>
       <c r="C4" t="n">
         <v>0.02563732995072445</v>
       </c>
       <c r="D4" t="n">
-        <v>0.005401155640626095</v>
+        <v>0.005505419602605446</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6345,13 +6345,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01256947459927235</v>
+        <v>0.01250728613319529</v>
       </c>
       <c r="C5" t="n">
         <v>0.02471236146237643</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01214288686310408</v>
+        <v>0.01220507532918114</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6366,13 +6366,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02705118569920077</v>
+        <v>0.02690758498950907</v>
       </c>
       <c r="C6" t="n">
         <v>0.02425104199951217</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.002800143699688604</v>
+        <v>-0.002656542989996905</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6387,13 +6387,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02507621636259543</v>
+        <v>0.02494181882253119</v>
       </c>
       <c r="C7" t="n">
         <v>0.02374835083039455</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.001327865532200878</v>
+        <v>-0.001193467992136637</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6408,13 +6408,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02467711513516701</v>
+        <v>0.02454889609277234</v>
       </c>
       <c r="C8" t="n">
         <v>0.02345163177318278</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.00122548336198423</v>
+        <v>-0.001097264319589553</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6429,13 +6429,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02188228830341197</v>
+        <v>0.02176860136325378</v>
       </c>
       <c r="C9" t="n">
         <v>0.02292940566607005</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001047117362658077</v>
+        <v>0.001160804302816267</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6450,13 +6450,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02469778680776652</v>
+        <v>0.02510944818920866</v>
       </c>
       <c r="C10" t="n">
         <v>0.02281671314064729</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.001881073667119232</v>
+        <v>-0.002292735048561367</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6471,13 +6471,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0225143185842982</v>
+        <v>0.02240049791129496</v>
       </c>
       <c r="C11" t="n">
         <v>0.02156871548409407</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0009456031002041294</v>
+        <v>-0.0008317824272008854</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6492,13 +6492,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02218234429217465</v>
+        <v>0.02206487613192818</v>
       </c>
       <c r="C12" t="n">
         <v>0.0211604812065266</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.001021863085648052</v>
+        <v>-0.0009043949254015846</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6513,13 +6513,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02528824912994336</v>
+        <v>0.02515115885183135</v>
       </c>
       <c r="C13" t="n">
         <v>0.02116013083855862</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.004128118291384736</v>
+        <v>-0.003991028013272724</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6534,13 +6534,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02306709307900563</v>
+        <v>0.02294833166004754</v>
       </c>
       <c r="C14" t="n">
         <v>0.02090205738045378</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.002165035698551847</v>
+        <v>-0.002046274279593762</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6555,13 +6555,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0191341612811506</v>
+        <v>0.01903250366729877</v>
       </c>
       <c r="C15" t="n">
         <v>0.02077488285339199</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001640721572241387</v>
+        <v>0.001742379186093216</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6576,13 +6576,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01803190794525189</v>
+        <v>0.01793718603097995</v>
       </c>
       <c r="C16" t="n">
         <v>0.02077006578874074</v>
       </c>
       <c r="D16" t="n">
-        <v>0.002738157843488846</v>
+        <v>0.002832879757760792</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0173358162245732</v>
+        <v>0.01724750561580329</v>
       </c>
       <c r="C17" t="n">
         <v>0.02067599520940082</v>
       </c>
       <c r="D17" t="n">
-        <v>0.003340178984827614</v>
+        <v>0.003428489593597522</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6618,13 +6618,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02336852009196689</v>
+        <v>0.02418612777419545</v>
       </c>
       <c r="C18" t="n">
         <v>0.02062199202385445</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.002746528068112441</v>
+        <v>-0.003564135750341001</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6639,13 +6639,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02068978183237961</v>
+        <v>0.02103659288694337</v>
       </c>
       <c r="C19" t="n">
         <v>0.02057905407959187</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.0001107277527877433</v>
+        <v>-0.0004575388073514985</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6660,13 +6660,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0221000919225233</v>
+        <v>0.02198337886140012</v>
       </c>
       <c r="C20" t="n">
         <v>0.0205014401816566</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.001598651740866694</v>
+        <v>-0.001481938679743521</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6681,13 +6681,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01442427400048153</v>
+        <v>0.01434778052410232</v>
       </c>
       <c r="C21" t="n">
         <v>0.0203240568731884</v>
       </c>
       <c r="D21" t="n">
-        <v>0.005899782872706866</v>
+        <v>0.00597627634908608</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6744,13 +6744,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02151106931356022</v>
+        <v>0.02139498459209344</v>
       </c>
       <c r="C24" t="n">
         <v>0.01968607574925138</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.001824993564308843</v>
+        <v>-0.001708908842842066</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6765,13 +6765,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01655149349767594</v>
+        <v>0.01646493196492904</v>
       </c>
       <c r="C25" t="n">
         <v>0.01959822326932216</v>
       </c>
       <c r="D25" t="n">
-        <v>0.003046729771646217</v>
+        <v>0.003133291304393118</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6786,13 +6786,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02043404636424556</v>
+        <v>0.02148149626635793</v>
       </c>
       <c r="C26" t="n">
         <v>0.0191454056416191</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.001288640722626463</v>
+        <v>-0.002336090624738829</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6807,13 +6807,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01703349487588254</v>
+        <v>0.01694409234735606</v>
       </c>
       <c r="C27" t="n">
         <v>0.01901282332643089</v>
       </c>
       <c r="D27" t="n">
-        <v>0.001979328450548355</v>
+        <v>0.002068730979074833</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6828,13 +6828,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01924168802392384</v>
+        <v>0.01914212897676785</v>
       </c>
       <c r="C28" t="n">
         <v>0.01890258507083755</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.0003391029530862913</v>
+        <v>-0.0002395439059302978</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6870,13 +6870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01805901633202313</v>
+        <v>0.0179619985168278</v>
       </c>
       <c r="C30" t="n">
         <v>0.01872725678146009</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0006682404494369569</v>
+        <v>0.0007652582646322931</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6912,13 +6912,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01573605668344729</v>
+        <v>0.01640767600514587</v>
       </c>
       <c r="C32" t="n">
         <v>0.01858459634145788</v>
       </c>
       <c r="D32" t="n">
-        <v>0.002848539658010598</v>
+        <v>0.002176920336312012</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6933,13 +6933,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01820259261689401</v>
+        <v>0.01810782400626779</v>
       </c>
       <c r="C33" t="n">
         <v>0.01856773891730408</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0003651463004100651</v>
+        <v>0.0004599149110362868</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6954,13 +6954,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.02148907675698514</v>
+        <v>0.02212892626380956</v>
       </c>
       <c r="C34" t="n">
         <v>0.01847191446797979</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.003017162289005351</v>
+        <v>-0.003657011795829768</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -6996,13 +6996,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01734190717280486</v>
+        <v>0.01724951563033032</v>
       </c>
       <c r="C36" t="n">
         <v>0.01833167966014215</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0009897724873372885</v>
+        <v>0.001082164029811834</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -7017,13 +7017,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0167411040380693</v>
+        <v>0.01665573630115532</v>
       </c>
       <c r="C37" t="n">
         <v>0.018225374936724</v>
       </c>
       <c r="D37" t="n">
-        <v>0.001484270898654695</v>
+        <v>0.001569638635568679</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -7038,13 +7038,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.02113846529096833</v>
+        <v>0.02102532080017883</v>
       </c>
       <c r="C38" t="n">
         <v>0.01809225546667675</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.003046209824291577</v>
+        <v>-0.002933065333502075</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -7080,13 +7080,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01791513415340331</v>
+        <v>0.01782309262758385</v>
       </c>
       <c r="C40" t="n">
         <v>0.01796711414388049</v>
       </c>
       <c r="D40" t="n">
-        <v>5.197999047717658e-05</v>
+        <v>0.0001440215162966385</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -7101,13 +7101,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01773756668168335</v>
+        <v>0.01764485144022704</v>
       </c>
       <c r="C41" t="n">
         <v>0.01792213058330159</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0001845639016182371</v>
+        <v>0.0002772791430745436</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -7164,13 +7164,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.01689550402310414</v>
+        <v>0.01680653263280413</v>
       </c>
       <c r="C44" t="n">
         <v>0.01768675318270332</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0007912491595991888</v>
+        <v>0.0008802205498991932</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -7206,13 +7206,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.02036488461522207</v>
+        <v>0.02025657756690073</v>
       </c>
       <c r="C46" t="n">
         <v>0.0175457761909561</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.002819108424265967</v>
+        <v>-0.002710801375944628</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.01927779701444957</v>
+        <v>0.01917554725561074</v>
       </c>
       <c r="C47" t="n">
         <v>0.01750935275302623</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.001768444261423339</v>
+        <v>-0.001666194502584508</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -7248,13 +7248,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.01611269725788673</v>
+        <v>0.01602749106587774</v>
       </c>
       <c r="C48" t="n">
         <v>0.01743323186996571</v>
       </c>
       <c r="D48" t="n">
-        <v>0.001320534612078986</v>
+        <v>0.001405740804087976</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -7269,13 +7269,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.02272352059074747</v>
+        <v>0.02260427992328768</v>
       </c>
       <c r="C49" t="n">
         <v>0.01733593416519203</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.005387586425555431</v>
+        <v>-0.005268345758095649</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01683444476265544</v>
+        <v>0.01674515165655512</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01683444476265544</v>
+        <v>-0.01674515165655512</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7353,13 +7353,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01819556187765871</v>
+        <v>0.0180991294030413</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01819556187765871</v>
+        <v>-0.0180991294030413</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7374,13 +7374,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.0167966139649401</v>
+        <v>0.01670978423995884</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.0167966139649401</v>
+        <v>-0.01670978423995884</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01865553758547224</v>
+        <v>0.01856520413421568</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01865553758547224</v>
+        <v>-0.01856520413421568</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7416,13 +7416,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01880403840986791</v>
+        <v>0.01870644621837687</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01880403840986791</v>
+        <v>-0.01870644621837687</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7437,13 +7437,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.0184715559791837</v>
+        <v>0.01837446449534441</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.0184715559791837</v>
+        <v>-0.01837446449534441</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7458,13 +7458,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01777631427604549</v>
+        <v>0.01768359120684945</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01777631427604549</v>
+        <v>-0.01768359120684945</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7479,13 +7479,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01554585269558443</v>
+        <v>0.01546370228465277</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01554585269558443</v>
+        <v>-0.01546370228465277</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7500,13 +7500,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.0199612738481052</v>
+        <v>0.01985663926027977</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.0199612738481052</v>
+        <v>-0.01985663926027977</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7521,13 +7521,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01943005046700172</v>
+        <v>0.01997599426101403</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01943005046700172</v>
+        <v>-0.01997599426101403</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7542,13 +7542,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.02135006661851896</v>
+        <v>0.02123624228851858</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.02135006661851896</v>
+        <v>-0.02123624228851858</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>

--- a/output/VALUE/rebalance/rebalance_20240930.xlsx
+++ b/output/VALUE/rebalance/rebalance_20240930.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>24.77%</t>
+          <t>24.82%</t>
         </is>
       </c>
     </row>
@@ -6282,13 +6282,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0327718504570726</v>
+        <v>0.03259914872242865</v>
       </c>
       <c r="C2" t="n">
         <v>0.027652318054288</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.005119532402784597</v>
+        <v>-0.004946830668140643</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6303,13 +6303,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02625731005619422</v>
+        <v>0.02698129324373291</v>
       </c>
       <c r="C3" t="n">
         <v>0.02616609188942918</v>
       </c>
       <c r="D3" t="n">
-        <v>-9.12181667650433e-05</v>
+        <v>-0.0008152013543037337</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6324,13 +6324,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.020131910348119</v>
+        <v>0.02004824007046496</v>
       </c>
       <c r="C4" t="n">
         <v>0.02563732995072445</v>
       </c>
       <c r="D4" t="n">
-        <v>0.005505419602605446</v>
+        <v>0.005589089880259485</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6345,13 +6345,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01250728613319529</v>
+        <v>0.01220447465804508</v>
       </c>
       <c r="C5" t="n">
         <v>0.02471236146237643</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01220507532918114</v>
+        <v>0.01250788680433135</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6366,13 +6366,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02690758498950907</v>
+        <v>0.02764806015419706</v>
       </c>
       <c r="C6" t="n">
         <v>0.02425104199951217</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.002656542989996905</v>
+        <v>-0.003397018154684895</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6387,13 +6387,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02494181882253119</v>
+        <v>0.02562951384615955</v>
       </c>
       <c r="C7" t="n">
         <v>0.02374835083039455</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.001193467992136637</v>
+        <v>-0.001881163015764999</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6408,13 +6408,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02454889609277234</v>
+        <v>0.02431197488371939</v>
       </c>
       <c r="C8" t="n">
         <v>0.02345163177318278</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.001097264319589553</v>
+        <v>-0.0008603431105366106</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6429,13 +6429,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02176860136325378</v>
+        <v>0.02142382030786918</v>
       </c>
       <c r="C9" t="n">
         <v>0.02292940566607005</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001160804302816267</v>
+        <v>0.001505585358200862</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6450,13 +6450,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02510944818920866</v>
+        <v>0.0246867270172487</v>
       </c>
       <c r="C10" t="n">
         <v>0.02281671314064729</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.002292735048561367</v>
+        <v>-0.001870013876601406</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6471,13 +6471,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02240049791129496</v>
+        <v>0.0222920993735806</v>
       </c>
       <c r="C11" t="n">
         <v>0.02156871548409407</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0008317824272008854</v>
+        <v>-0.0007233838894865237</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6492,13 +6492,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02206487613192818</v>
+        <v>0.02267178955373011</v>
       </c>
       <c r="C12" t="n">
         <v>0.0211604812065266</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0009043949254015846</v>
+        <v>-0.001511308347203508</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6513,13 +6513,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02515115885183135</v>
+        <v>0.02501247584368102</v>
       </c>
       <c r="C13" t="n">
         <v>0.02116013083855862</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.003991028013272724</v>
+        <v>-0.003852345005122396</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6534,13 +6534,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02294833166004754</v>
+        <v>0.02239019829642798</v>
       </c>
       <c r="C14" t="n">
         <v>0.02090205738045378</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.002046274279593762</v>
+        <v>-0.001488140915974202</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6555,13 +6555,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01903250366729877</v>
+        <v>0.01926822649360596</v>
       </c>
       <c r="C15" t="n">
         <v>0.02077488285339199</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001742379186093216</v>
+        <v>0.001506656359786029</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6576,13 +6576,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01793718603097995</v>
+        <v>0.01842977535657513</v>
       </c>
       <c r="C16" t="n">
         <v>0.02077006578874074</v>
       </c>
       <c r="D16" t="n">
-        <v>0.002832879757760792</v>
+        <v>0.002340290432165607</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01724750561580329</v>
+        <v>0.01685719839453246</v>
       </c>
       <c r="C17" t="n">
         <v>0.02067599520940082</v>
       </c>
       <c r="D17" t="n">
-        <v>0.003428489593597522</v>
+        <v>0.00381879681486836</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6618,13 +6618,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02418612777419545</v>
+        <v>0.02291823525082498</v>
       </c>
       <c r="C18" t="n">
         <v>0.02062199202385445</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.003564135750341001</v>
+        <v>-0.002296243226970533</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6639,13 +6639,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02103659288694337</v>
+        <v>0.02067707174706077</v>
       </c>
       <c r="C19" t="n">
         <v>0.02057905407959187</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.0004575388073514985</v>
+        <v>-9.801766746889845e-05</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6660,13 +6660,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02198337886140012</v>
+        <v>0.02160279256367598</v>
       </c>
       <c r="C20" t="n">
         <v>0.0205014401816566</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.001481938679743521</v>
+        <v>-0.001101352382019381</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6681,13 +6681,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01434778052410232</v>
+        <v>0.01428039169812725</v>
       </c>
       <c r="C21" t="n">
         <v>0.0203240568731884</v>
       </c>
       <c r="D21" t="n">
-        <v>0.00597627634908608</v>
+        <v>0.006043665175061146</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6744,13 +6744,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02139498459209344</v>
+        <v>0.02198570313980681</v>
       </c>
       <c r="C24" t="n">
         <v>0.01968607574925138</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.001708908842842066</v>
+        <v>-0.00229962739055543</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6765,13 +6765,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01646493196492904</v>
+        <v>0.01691669610914933</v>
       </c>
       <c r="C25" t="n">
         <v>0.01959822326932216</v>
       </c>
       <c r="D25" t="n">
-        <v>0.003133291304393118</v>
+        <v>0.002681527160172826</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6786,13 +6786,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02148149626635793</v>
+        <v>0.01969597486915473</v>
       </c>
       <c r="C26" t="n">
         <v>0.0191454056416191</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.002336090624738829</v>
+        <v>-0.0005505692275356334</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6807,13 +6807,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01694409234735606</v>
+        <v>0.01694681054838902</v>
       </c>
       <c r="C27" t="n">
         <v>0.01901282332643089</v>
       </c>
       <c r="D27" t="n">
-        <v>0.002068730979074833</v>
+        <v>0.002066012778041876</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6828,17 +6828,17 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01914212897676785</v>
+        <v>0.01880652206442174</v>
       </c>
       <c r="C28" t="n">
         <v>0.01890258507083755</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.0002395439059302978</v>
+        <v>9.606300641580579e-05</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6870,13 +6870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.0179619985168278</v>
+        <v>0.01845748187992196</v>
       </c>
       <c r="C30" t="n">
         <v>0.01872725678146009</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0007652582646322931</v>
+        <v>0.0002697749015381327</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6912,13 +6912,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01640767600514587</v>
+        <v>0.01530845266002475</v>
       </c>
       <c r="C32" t="n">
         <v>0.01858459634145788</v>
       </c>
       <c r="D32" t="n">
-        <v>0.002176920336312012</v>
+        <v>0.00327614368143314</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6933,17 +6933,17 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01810782400626779</v>
+        <v>0.01860422612266854</v>
       </c>
       <c r="C33" t="n">
         <v>0.01856773891730408</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0004599149110362868</v>
+        <v>-3.648720536446326e-05</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6954,13 +6954,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.02212892626380956</v>
+        <v>0.02118454997512914</v>
       </c>
       <c r="C34" t="n">
         <v>0.01847191446797979</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.003657011795829768</v>
+        <v>-0.002712635507149352</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -6996,13 +6996,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01724951563033032</v>
+        <v>0.01772454997107118</v>
       </c>
       <c r="C36" t="n">
         <v>0.01833167966014215</v>
       </c>
       <c r="D36" t="n">
-        <v>0.001082164029811834</v>
+        <v>0.0006071296890709649</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -7017,13 +7017,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01665573630115532</v>
+        <v>0.0162483338465068</v>
       </c>
       <c r="C37" t="n">
         <v>0.018225374936724</v>
       </c>
       <c r="D37" t="n">
-        <v>0.001569638635568679</v>
+        <v>0.001977041090217201</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -7038,13 +7038,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.02102532080017883</v>
+        <v>0.02160487774661081</v>
       </c>
       <c r="C38" t="n">
         <v>0.01809225546667675</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.002933065333502075</v>
+        <v>-0.003512622279934059</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -7080,17 +7080,17 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01782309262758385</v>
+        <v>0.01831042499399348</v>
       </c>
       <c r="C40" t="n">
         <v>0.01796711414388049</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0001440215162966385</v>
+        <v>-0.0003433108501129968</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -7101,13 +7101,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01764485144022704</v>
+        <v>0.01734084507008826</v>
       </c>
       <c r="C41" t="n">
         <v>0.01792213058330159</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0002772791430745436</v>
+        <v>0.0005812855132133268</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -7164,13 +7164,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.01680653263280413</v>
+        <v>0.01695566362600771</v>
       </c>
       <c r="C44" t="n">
         <v>0.01768675318270332</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0008802205498991932</v>
+        <v>0.0007310895566956174</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -7206,13 +7206,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.02025657756690073</v>
+        <v>0.02081422829800684</v>
       </c>
       <c r="C46" t="n">
         <v>0.0175457761909561</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.002710801375944628</v>
+        <v>-0.003268452107050738</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.01917554725561074</v>
+        <v>0.01901181575475832</v>
       </c>
       <c r="C47" t="n">
         <v>0.01750935275302623</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.001666194502584508</v>
+        <v>-0.001502463001732089</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -7248,13 +7248,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.01602749106587774</v>
+        <v>0.01567340820211414</v>
       </c>
       <c r="C48" t="n">
         <v>0.01743323186996571</v>
       </c>
       <c r="D48" t="n">
-        <v>0.001405740804087976</v>
+        <v>0.001759823667851577</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -7269,13 +7269,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.02260427992328768</v>
+        <v>0.02322490670812566</v>
       </c>
       <c r="C49" t="n">
         <v>0.01733593416519203</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.005268345758095649</v>
+        <v>-0.005888972542933624</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01674515165655512</v>
+        <v>0.01681924136290371</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01674515165655512</v>
+        <v>-0.01681924136290371</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7353,13 +7353,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.0180991294030413</v>
+        <v>0.01859704025276</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.0180991294030413</v>
+        <v>-0.01859704025276</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7374,13 +7374,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01670978423995884</v>
+        <v>0.01716722506929562</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01670978423995884</v>
+        <v>-0.01716722506929562</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01856520413421568</v>
+        <v>0.01892409406408495</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01856520413421568</v>
+        <v>-0.01892409406408495</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7416,13 +7416,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01870644621837687</v>
+        <v>0.01921894259567409</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01870644621837687</v>
+        <v>-0.01921894259567409</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7437,13 +7437,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01837446449534441</v>
+        <v>0.0188791240625426</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01837446449534441</v>
+        <v>-0.0188791240625426</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7458,13 +7458,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01768359120684945</v>
+        <v>0.01816854210714092</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01768359120684945</v>
+        <v>-0.01816854210714092</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7479,13 +7479,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01546370228465277</v>
+        <v>0.01542979784723017</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01546370228465277</v>
+        <v>-0.01542979784723017</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7500,13 +7500,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01985663926027977</v>
+        <v>0.01950870777858014</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01985663926027977</v>
+        <v>-0.01950870777858014</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7521,13 +7521,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01997599426101403</v>
+        <v>0.01919153060075125</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01997599426101403</v>
+        <v>-0.01919153060075125</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7542,13 +7542,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.02123624228851858</v>
+        <v>0.02134677519739963</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.02123624228851858</v>
+        <v>-0.02134677519739963</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
